--- a/Docs/Plan Administración.xlsx
+++ b/Docs/Plan Administración.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaiduck\Downloads\Dropbox\Escuela\Informática\Administración de Proyectos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
   <si>
     <t>Semana</t>
   </si>
@@ -114,9 +109,6 @@
   </si>
   <si>
     <t>Puntos de Función</t>
-  </si>
-  <si>
-    <t>Pseudocódigo</t>
   </si>
   <si>
     <t>Prototipo de Ventanas</t>
@@ -131,8 +123,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -336,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -371,7 +363,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,21 +540,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
@@ -573,7 +565,7 @@
     <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -597,7 +589,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -624,7 +616,7 @@
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="2"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
@@ -637,7 +629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
@@ -650,14 +642,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -683,7 +675,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
@@ -696,7 +688,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
@@ -709,14 +701,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -742,7 +734,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
@@ -755,7 +747,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
@@ -768,14 +760,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -801,7 +793,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
@@ -814,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
@@ -827,14 +819,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -860,7 +852,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
@@ -873,7 +865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
@@ -886,14 +878,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -919,7 +911,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="4" t="s">
@@ -932,7 +924,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
@@ -945,7 +937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4" t="s">
@@ -958,7 +950,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5" t="s">
@@ -971,7 +963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -997,7 +989,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="4" t="s">
@@ -1010,7 +1002,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4" t="s">
@@ -1023,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -1049,20 +1041,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="4" t="s">
@@ -1075,14 +1067,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -1093,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>10</v>
@@ -1108,40 +1100,40 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -1152,7 +1144,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>9</v>
@@ -1167,40 +1159,40 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -1211,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>10</v>
@@ -1226,40 +1218,40 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8">
       <c r="A45" s="2"/>
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>12</v>
       </c>
@@ -1270,7 +1262,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>10</v>
@@ -1285,33 +1277,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8">
       <c r="A47" s="2"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="4"/>

--- a/Docs/Plan Administración.xlsx
+++ b/Docs/Plan Administración.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaiduck\Downloads\Dropbox\Escuela\Informática\Administración de Proyectos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="34">
   <si>
     <t>Semana</t>
   </si>
@@ -109,6 +114,9 @@
   </si>
   <si>
     <t>Puntos de Función</t>
+  </si>
+  <si>
+    <t>Pseudocódigo</t>
   </si>
   <si>
     <t>Prototipo de Ventanas</t>
@@ -123,8 +131,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -363,7 +371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,21 +548,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
@@ -565,7 +573,7 @@
     <col min="11" max="11" width="24.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -589,7 +597,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -616,7 +624,7 @@
       </c>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="8"/>
       <c r="C3" s="4" t="s">
@@ -629,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4" t="s">
@@ -642,14 +650,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -675,7 +683,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="4" t="s">
@@ -688,7 +696,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="4" t="s">
@@ -701,14 +709,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -734,7 +742,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="4" t="s">
@@ -747,7 +755,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="4" t="s">
@@ -760,14 +768,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -793,7 +801,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
@@ -806,7 +814,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
@@ -819,14 +827,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -852,7 +860,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="4" t="s">
@@ -865,7 +873,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="4" t="s">
@@ -878,14 +886,14 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -911,7 +919,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="4" t="s">
@@ -924,7 +932,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="4" t="s">
@@ -937,7 +945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="4" t="s">
@@ -950,7 +958,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="5" t="s">
@@ -963,7 +971,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>7</v>
       </c>
@@ -989,7 +997,7 @@
         <v>43.75</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="4" t="s">
@@ -1002,7 +1010,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="4" t="s">
@@ -1015,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>8</v>
       </c>
@@ -1041,20 +1049,20 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="4" t="s">
@@ -1067,14 +1075,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>9</v>
       </c>
@@ -1085,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>10</v>
@@ -1100,40 +1108,40 @@
         <v>56.25</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>10</v>
       </c>
@@ -1144,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
         <v>9</v>
@@ -1159,40 +1167,40 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E40" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>11</v>
       </c>
@@ -1203,7 +1211,7 @@
         <v>3</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>10</v>
@@ -1218,40 +1226,40 @@
         <v>68.75</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E44" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>12</v>
       </c>
@@ -1262,7 +1270,7 @@
         <v>3</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E46" s="4" t="s">
         <v>10</v>
@@ -1277,33 +1285,33 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="8"/>
       <c r="C47" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E47" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="4"/>
